--- a/AAII_Financials/Quarterly/PATH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PATH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
   <si>
     <t>PATH</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>186200</v>
+      </c>
+      <c r="E8" s="3">
         <v>207900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>147300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>139400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>113100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>114800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>83900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>77100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>60300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E9" s="3">
         <v>20100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>17400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>137200</v>
+      </c>
+      <c r="E10" s="3">
         <v>187800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>129900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>124700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>99500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>102000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>70200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>63200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E12" s="3">
         <v>29200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>26500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>26700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>32300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,49 +907,55 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>11500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>422200</v>
+      </c>
+      <c r="E17" s="3">
         <v>193300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>210300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>156400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>158000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>190800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>218400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>227100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>217100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-236000</v>
+      </c>
+      <c r="E18" s="3">
         <v>14600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-63000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-44900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-76000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-134500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-150000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-156800</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,42 +1042,46 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>5000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>24100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>-235100</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>10</v>
@@ -1068,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,66 +1136,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-238300</v>
+      </c>
+      <c r="E23" s="3">
         <v>19600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-69200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-52200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-76200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-132400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-150300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-158200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-6600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-239700</v>
+      </c>
+      <c r="E26" s="3">
         <v>26300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-70800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-52800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-78100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-133000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-151000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-239700</v>
+      </c>
+      <c r="E27" s="3">
         <v>26300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-70800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-52800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-78100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-133000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-151000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-24100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-239700</v>
+      </c>
+      <c r="E33" s="3">
         <v>26300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-70800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-52800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-78100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-133000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-151000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-239700</v>
+      </c>
+      <c r="E35" s="3">
         <v>26300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-70800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-52800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-78100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-133000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-151000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,95 +1619,105 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
+        <v>1796300</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>83300</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>177500</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,153 +1745,171 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>62900</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
+        <v>2119900</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>9100</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>31600</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>82300</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>63600</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
+        <v>2306600</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,37 +2095,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>5600</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,66 +2157,75 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>322900</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
+        <v>328600</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,37 +2253,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>78400</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
-      <c r="J66" s="3">
-        <v>0</v>
+        <v>407000</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>-1210000</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
+        <v>1899500</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-239700</v>
+      </c>
+      <c r="E81" s="3">
         <v>26300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-70800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-52800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-78100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-133000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-151000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>3200</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>-17500</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-2200</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>10900</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>1442900</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>2300</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>1438600</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PATH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PATH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>PATH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>195500</v>
+      </c>
+      <c r="E8" s="3">
         <v>186200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>207900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>147300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>139400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>113100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>114800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>83900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>77100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>60300</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E9" s="3">
         <v>49000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>20100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>17400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>159900</v>
+      </c>
+      <c r="E10" s="3">
         <v>137200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>187800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>129900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>124700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>99500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>102000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>70200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>63200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,40 +839,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E12" s="3">
         <v>93000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>29200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>26500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>26700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>25800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>32300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,29 +930,32 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>11500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E15" s="3">
         <v>900</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
@@ -948,14 +971,17 @@
       <c r="J15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>293300</v>
+      </c>
+      <c r="E17" s="3">
         <v>422200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>193300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>210300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>156400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>158000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>190800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>218400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>227100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>217100</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-97800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-236000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-63000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-44900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-76000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-134500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-150000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-156800</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,49 +1076,53 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>24100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-94500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-235100</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1107,8 +1144,11 @@
       <c r="L21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,72 +1179,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-98300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-238300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>19600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-69200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-52200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-76200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-132400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-150300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-158200</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-6600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-239700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>26300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-70800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-52800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-78100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-133000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-151000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-239700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>26300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-70800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-52800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-78100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-133000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-151000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-24100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-239700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>26300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-70800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-52800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-78100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-133000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-151000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-239700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>26300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-70800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-52800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-78100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-133000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-151000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,17 +1706,18 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1826400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1796300</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>10</v>
       </c>
@@ -1646,23 +1733,26 @@
       <c r="J41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
+      <c r="K41" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E42" s="3">
         <v>83300</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>10</v>
       </c>
@@ -1678,23 +1768,26 @@
       <c r="J42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>198500</v>
+      </c>
+      <c r="E43" s="3">
         <v>177500</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>10</v>
       </c>
@@ -1710,14 +1803,17 @@
       <c r="J43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,17 +1844,20 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E45" s="3">
         <v>62900</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>10</v>
       </c>
@@ -1774,23 +1873,26 @@
       <c r="J45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2159100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2119900</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>10</v>
       </c>
@@ -1806,23 +1908,26 @@
       <c r="J46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
+      <c r="K46" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E47" s="3">
         <v>9100</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>10</v>
       </c>
@@ -1838,23 +1943,26 @@
       <c r="J47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E48" s="3">
         <v>31600</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>10</v>
       </c>
@@ -1870,23 +1978,26 @@
       <c r="J48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>77300</v>
+      </c>
+      <c r="E49" s="3">
         <v>82300</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>10</v>
       </c>
@@ -1902,14 +2013,17 @@
       <c r="J49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,17 +2089,20 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E52" s="3">
         <v>63600</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>10</v>
       </c>
@@ -1998,14 +2118,17 @@
       <c r="J52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,17 +2159,20 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2347900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2306600</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2062,14 +2188,17 @@
       <c r="J54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
+      <c r="K54" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,17 +2226,18 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
         <v>5600</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2122,14 +2253,17 @@
       <c r="J57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,17 +2294,20 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>371700</v>
+      </c>
+      <c r="E59" s="3">
         <v>322900</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>10</v>
       </c>
@@ -2186,23 +2323,26 @@
       <c r="J59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>374500</v>
+      </c>
+      <c r="E60" s="3">
         <v>328600</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2218,14 +2358,17 @@
       <c r="J60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
+      <c r="K60" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,17 +2399,20 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>74400</v>
+      </c>
+      <c r="E62" s="3">
         <v>78400</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>10</v>
       </c>
@@ -2282,14 +2428,17 @@
       <c r="J62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,17 +2539,20 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>448900</v>
+      </c>
+      <c r="E66" s="3">
         <v>407000</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>10</v>
       </c>
@@ -2410,14 +2568,17 @@
       <c r="J66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
+      <c r="K66" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,17 +2729,20 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1310000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1210000</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>10</v>
       </c>
@@ -2584,14 +2758,17 @@
       <c r="J72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
+      <c r="K72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,17 +2869,20 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1899000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1899500</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>10</v>
       </c>
@@ -2712,14 +2898,17 @@
       <c r="J76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
+      <c r="K76" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-239700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>26300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-70800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-52800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-78100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-133000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-151000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,17 +3031,18 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E83" s="3">
         <v>3200</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>10</v>
       </c>
@@ -2859,14 +3058,17 @@
       <c r="J83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,17 +3239,20 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17500</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>10</v>
       </c>
@@ -3051,14 +3268,17 @@
       <c r="J89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,17 +3291,18 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2200</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>10</v>
       </c>
@@ -3097,14 +3318,17 @@
       <c r="J91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,17 +3394,20 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E94" s="3">
         <v>10900</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>10</v>
       </c>
@@ -3193,14 +3423,17 @@
       <c r="J94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,17 +3584,20 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1442900</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>10</v>
       </c>
@@ -3367,23 +3613,26 @@
       <c r="J100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E101" s="3">
         <v>2300</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>10</v>
       </c>
@@ -3399,23 +3648,26 @@
       <c r="J101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E102" s="3">
         <v>1438600</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>10</v>
       </c>
@@ -3431,10 +3683,13 @@
       <c r="J102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PATH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PATH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>PATH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>220800</v>
+      </c>
+      <c r="E8" s="3">
         <v>195500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>186200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>207900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>147300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>139400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>113100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>114800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>83900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>77100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>60300</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E9" s="3">
         <v>35600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>49000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>20100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>17400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>177700</v>
+      </c>
+      <c r="E10" s="3">
         <v>159900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>137200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>187800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>129900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>124700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>99500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>102000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>70200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>63200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E12" s="3">
         <v>57600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>93000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>29200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>27500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>26500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>26700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>25800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>32300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -933,55 +953,61 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>11500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>900</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>337100</v>
+      </c>
+      <c r="E17" s="3">
         <v>293300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>422200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>193300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>210300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>156400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>158000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>190800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>218400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>227100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>217100</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-116300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-97800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-236000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-63000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-17000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-44900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-76000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-134500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-150000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-156800</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,55 +1110,59 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>24100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-115900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-94500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-235100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1147,8 +1184,11 @@
       <c r="M21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,78 +1222,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-119600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-98300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-238300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>19600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-69200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-52200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-76200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-132400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-150300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-158200</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-6600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-122800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-239700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>26300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-70800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-52800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-78100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-133000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-151000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-122800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-239700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>26300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-70800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-52800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-78100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-133000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-151000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-24100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-122800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-239700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>26300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-70800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-52800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-78100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-133000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-151000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-122800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-239700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>26300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-70800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-52800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-78100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-133000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-151000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,20 +1793,21 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1776400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1826400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1796300</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>10</v>
       </c>
@@ -1736,26 +1823,29 @@
       <c r="K41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
+      <c r="L41" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E42" s="3">
         <v>70100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>83300</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>10</v>
       </c>
@@ -1771,26 +1861,29 @@
       <c r="K42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>269400</v>
+      </c>
+      <c r="E43" s="3">
         <v>198500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>177500</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>10</v>
       </c>
@@ -1806,14 +1899,17 @@
       <c r="K43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,20 +1943,23 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E45" s="3">
         <v>64000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>62900</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>10</v>
       </c>
@@ -1876,26 +1975,29 @@
       <c r="K45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2207200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2159100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2119900</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>10</v>
       </c>
@@ -1911,26 +2013,29 @@
       <c r="K46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
+      <c r="L46" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E47" s="3">
         <v>2500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>9100</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>10</v>
       </c>
@@ -1946,26 +2051,29 @@
       <c r="K47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E48" s="3">
         <v>31000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31600</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>10</v>
       </c>
@@ -1981,14 +2089,17 @@
       <c r="K48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1996,11 +2107,11 @@
         <v>77300</v>
       </c>
       <c r="E49" s="3">
+        <v>77300</v>
+      </c>
+      <c r="F49" s="3">
         <v>82300</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2016,14 +2127,17 @@
       <c r="K49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,20 +2209,23 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>103700</v>
+      </c>
+      <c r="E52" s="3">
         <v>78000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>63600</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2121,14 +2241,17 @@
       <c r="K52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,20 +2285,23 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2467700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2347900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2306600</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2191,14 +2317,17 @@
       <c r="K54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
+      <c r="L54" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,20 +2357,21 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5600</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2256,14 +2387,17 @@
       <c r="K57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,20 +2431,23 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>443300</v>
+      </c>
+      <c r="E59" s="3">
         <v>371700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>322900</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>10</v>
       </c>
@@ -2326,26 +2463,29 @@
       <c r="K59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>467300</v>
+      </c>
+      <c r="E60" s="3">
         <v>374500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>328600</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2361,14 +2501,17 @@
       <c r="K60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
+      <c r="L60" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,20 +2545,23 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E62" s="3">
         <v>74400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>78400</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>10</v>
       </c>
@@ -2431,14 +2577,17 @@
       <c r="K62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,20 +2697,23 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>584300</v>
+      </c>
+      <c r="E66" s="3">
         <v>448900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>407000</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>10</v>
       </c>
@@ -2571,14 +2729,17 @@
       <c r="K66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L66" s="3">
-        <v>0</v>
+      <c r="L66" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,20 +2903,23 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1432800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1310000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1210000</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>10</v>
       </c>
@@ -2761,14 +2935,17 @@
       <c r="K72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
+      <c r="L72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,20 +3055,23 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1883400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1899000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1899500</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>10</v>
       </c>
@@ -2901,14 +3087,17 @@
       <c r="K76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
+      <c r="L76" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-122800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-239700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>26300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-70800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-52800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-78100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-133000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-151000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,20 +3230,21 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E83" s="3">
         <v>3800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3200</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>10</v>
       </c>
@@ -3061,14 +3260,17 @@
       <c r="K83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,20 +3456,23 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17500</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>10</v>
       </c>
@@ -3271,14 +3488,17 @@
       <c r="K89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,20 +3512,21 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2200</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>10</v>
       </c>
@@ -3321,14 +3542,17 @@
       <c r="K91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,20 +3624,23 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E94" s="3">
         <v>11000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>10900</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>10</v>
       </c>
@@ -3426,14 +3656,17 @@
       <c r="K94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,20 +3830,23 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E100" s="3">
         <v>9000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1442900</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>10</v>
       </c>
@@ -3616,26 +3862,29 @@
       <c r="K100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E101" s="3">
         <v>2600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2300</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>10</v>
       </c>
@@ -3651,26 +3900,29 @@
       <c r="K101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E102" s="3">
         <v>16700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1438600</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>10</v>
       </c>
@@ -3686,10 +3938,13 @@
       <c r="K102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PATH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PATH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
   <si>
     <t>PATH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>289700</v>
+      </c>
+      <c r="E8" s="3">
         <v>220800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>195500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>186200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>207900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>147300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>139400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>113100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>114800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>83900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>77100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>60300</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E9" s="3">
         <v>43100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>35600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>49000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>20100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>17400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>248500</v>
+      </c>
+      <c r="E10" s="3">
         <v>177700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>159900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>137200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>187800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>129900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>124700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>99500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>102000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>70200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>63200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +867,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E12" s="3">
         <v>61600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>57600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>93000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>29200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>27500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>26500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>26700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>25800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>32300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -956,58 +976,64 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>11500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>10</v>
+        <v>200</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>340600</v>
+      </c>
+      <c r="E17" s="3">
         <v>337100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>293300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>422200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>193300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>210300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>156400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>158000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>190800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>218400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>227100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>217100</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-116300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-97800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-236000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-63000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-17000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-44900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-76000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-134500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-150000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-156800</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,61 +1144,65 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>24100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-115900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-94500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-235100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1187,8 +1224,11 @@
       <c r="N21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1265,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-119600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-98300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-238300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-69200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-52200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-76200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-132400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-150300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-158200</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E24" s="3">
         <v>3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-6600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-122800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-239700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>26300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-70800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-52800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-78100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-133000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-151000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-122800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-239700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>26300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-70800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-52800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-78100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-133000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-151000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E32" s="3">
         <v>3400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-24100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-122800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-239700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>26300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-70800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-52800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-78100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-133000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-151000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-122800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-239700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>26300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-70800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-52800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-78100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-133000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-151000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,23 +1880,24 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1768700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1776400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1826400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1796300</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>10</v>
       </c>
@@ -1826,29 +1913,32 @@
       <c r="L41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="M41" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>96400</v>
+      </c>
+      <c r="E42" s="3">
         <v>102000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>70100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>83300</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>10</v>
       </c>
@@ -1864,29 +1954,32 @@
       <c r="L42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>336900</v>
+      </c>
+      <c r="E43" s="3">
         <v>269400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>198500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>177500</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>10</v>
       </c>
@@ -1902,14 +1995,17 @@
       <c r="L43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,23 +2042,26 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E45" s="3">
         <v>59400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>64000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>62900</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>10</v>
       </c>
@@ -1978,29 +2077,32 @@
       <c r="L45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2277300</v>
+      </c>
+      <c r="E46" s="3">
         <v>2207200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2159100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2119900</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2016,29 +2118,32 @@
       <c r="L46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
+      <c r="M46" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E47" s="3">
         <v>14300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>9100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>10</v>
       </c>
@@ -2054,29 +2159,32 @@
       <c r="L47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E48" s="3">
         <v>65100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>31600</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2092,29 +2200,32 @@
       <c r="L48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>77300</v>
+        <v>73500</v>
       </c>
       <c r="E49" s="3">
         <v>77300</v>
       </c>
       <c r="F49" s="3">
+        <v>77300</v>
+      </c>
+      <c r="G49" s="3">
         <v>82300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2130,14 +2241,17 @@
       <c r="L49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,23 +2329,26 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>133300</v>
+      </c>
+      <c r="E52" s="3">
         <v>103700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>78000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>63600</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2244,14 +2364,17 @@
       <c r="L52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,23 +2411,26 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2572500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2467700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2347900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2306600</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2320,14 +2446,17 @@
       <c r="L54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
+      <c r="M54" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,23 +2488,24 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E57" s="3">
         <v>23900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5600</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2390,14 +2521,17 @@
       <c r="L57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,23 +2568,26 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>516000</v>
+      </c>
+      <c r="E59" s="3">
         <v>443300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>371700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>322900</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>10</v>
       </c>
@@ -2466,29 +2603,32 @@
       <c r="L59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>527500</v>
+      </c>
+      <c r="E60" s="3">
         <v>467300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>374500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>328600</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2504,14 +2644,17 @@
       <c r="L60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
+      <c r="M60" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,23 +2691,26 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E62" s="3">
         <v>117000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>74400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>78400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>10</v>
       </c>
@@ -2580,14 +2726,17 @@
       <c r="L62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,23 +2855,26 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>650500</v>
+      </c>
+      <c r="E66" s="3">
         <v>584300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>448900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>407000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>10</v>
       </c>
@@ -2732,14 +2890,17 @@
       <c r="L66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
+      <c r="M66" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,23 +3077,26 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1495900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1432800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1310000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1210000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>10</v>
       </c>
@@ -2938,14 +3112,17 @@
       <c r="L72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
+      <c r="M72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,23 +3241,26 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1921900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1883400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1899000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1899500</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>10</v>
       </c>
@@ -3090,14 +3276,17 @@
       <c r="L76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
+      <c r="M76" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-122800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-239700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>26300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-70800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-52800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-78100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-133000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-151000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,23 +3429,24 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3200</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>10</v>
       </c>
@@ -3263,14 +3462,17 @@
       <c r="L83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,23 +3673,26 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-25400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-17500</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>10</v>
       </c>
@@ -3491,14 +3708,17 @@
       <c r="L89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,23 +3733,24 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>10</v>
       </c>
@@ -3545,14 +3766,17 @@
       <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,23 +3854,26 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-51000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>11000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>10900</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>10</v>
       </c>
@@ -3659,14 +3889,17 @@
       <c r="L94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,23 +4076,26 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E100" s="3">
         <v>20100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1442900</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>10</v>
       </c>
@@ -3865,29 +4111,32 @@
       <c r="L100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E101" s="3">
         <v>6400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2300</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>10</v>
       </c>
@@ -3903,29 +4152,32 @@
       <c r="L101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-50000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1438600</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>10</v>
       </c>
@@ -3941,10 +4193,13 @@
       <c r="L102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PATH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PATH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>PATH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>245100</v>
+      </c>
+      <c r="E8" s="3">
         <v>289700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>220800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>195500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>186200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>207900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>147300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>139400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>113100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>114800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>83900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>77100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>60300</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E9" s="3">
         <v>41200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>43100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>35600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>49000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>20100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>17400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200100</v>
+      </c>
+      <c r="E10" s="3">
         <v>248500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>177700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>159900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>137200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>187800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>129900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>124700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>99500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>102000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>70200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>63200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E12" s="3">
         <v>64400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>61600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>57600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>93000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>29200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>27500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>26500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>26700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>24300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>25800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>32300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -979,20 +998,23 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>11500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1000,40 +1022,43 @@
         <v>500</v>
       </c>
       <c r="E15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F15" s="3">
         <v>400</v>
       </c>
       <c r="G15" s="3">
+        <v>400</v>
+      </c>
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>10</v>
+      <c r="K15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>361000</v>
+      </c>
+      <c r="E17" s="3">
         <v>340600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>337100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>293300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>422200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>193300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>210300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>156400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>158000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>190800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>218400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>227100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>217100</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-115900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-50900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-116300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-97800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-236000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-63000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-17000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-44900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-76000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-134500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-150000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-156800</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,67 +1177,71 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>24100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-113700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-50700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-115900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-94500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-235100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1227,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,90 +1307,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-117800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-54700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-119600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-98300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-238300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>19600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-69200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-52200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-76200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-132400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-150300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-158200</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E24" s="3">
         <v>8400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-6600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-122600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-63100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-122800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-239700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>26300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-70800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-52800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-78100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-133000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-151000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-122600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-63100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-122800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-239700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>26300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-70800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-52800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-78100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-133000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-151000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>3800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-24100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-122600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-63100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-122800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-239700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>26300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-70800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-52800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-78100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-133000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-151000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-122600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-63100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-122800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-239700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>26300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-70800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-52800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-78100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-133000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-151000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,26 +1966,27 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1679200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1768700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1776400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1826400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1796300</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>10</v>
       </c>
@@ -1916,32 +2002,35 @@
       <c r="M41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
+      <c r="N41" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E42" s="3">
         <v>96400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>102000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>70100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>83300</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>10</v>
       </c>
@@ -1957,32 +2046,35 @@
       <c r="M42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>266400</v>
+      </c>
+      <c r="E43" s="3">
         <v>336900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>269400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>198500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>177500</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>10</v>
       </c>
@@ -1998,14 +2090,17 @@
       <c r="M43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,26 +2140,29 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>84600</v>
+      </c>
+      <c r="E45" s="3">
         <v>75300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>59400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>64000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>62900</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2080,32 +2178,35 @@
       <c r="M45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2145000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2277300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2207200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2159100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2119900</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2121,32 +2222,35 @@
       <c r="M46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
+      <c r="N46" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E47" s="3">
         <v>22300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>14300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9100</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>10</v>
       </c>
@@ -2162,32 +2266,35 @@
       <c r="M47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E48" s="3">
         <v>66100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>65100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>31000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>31600</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2203,32 +2310,35 @@
       <c r="M48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E49" s="3">
         <v>73500</v>
-      </c>
-      <c r="E49" s="3">
-        <v>77300</v>
       </c>
       <c r="F49" s="3">
         <v>77300</v>
       </c>
       <c r="G49" s="3">
+        <v>77300</v>
+      </c>
+      <c r="H49" s="3">
         <v>82300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2244,14 +2354,17 @@
       <c r="M49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,26 +2448,29 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>130200</v>
+      </c>
+      <c r="E52" s="3">
         <v>133300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>103700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>78000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>63600</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2367,14 +2486,17 @@
       <c r="M52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,26 +2536,29 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2424700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2572500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2467700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2347900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2306600</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2449,14 +2574,17 @@
       <c r="M54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
+      <c r="N54" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,26 +2618,27 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E57" s="3">
         <v>11500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>23900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5600</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2524,14 +2654,17 @@
       <c r="M57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2571,26 +2704,29 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>420800</v>
+      </c>
+      <c r="E59" s="3">
         <v>516000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>443300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>371700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>322900</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>10</v>
       </c>
@@ -2606,32 +2742,35 @@
       <c r="M59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>438200</v>
+      </c>
+      <c r="E60" s="3">
         <v>527500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>467300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>374500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>328600</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2647,14 +2786,17 @@
       <c r="M60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
+      <c r="N60" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,26 +2836,29 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>106300</v>
+      </c>
+      <c r="E62" s="3">
         <v>123000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>117000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>74400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>78400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>10</v>
       </c>
@@ -2729,14 +2874,17 @@
       <c r="M62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,26 +3012,29 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>544500</v>
+      </c>
+      <c r="E66" s="3">
         <v>650500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>584300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>448900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>407000</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>10</v>
       </c>
@@ -2893,14 +3050,17 @@
       <c r="M66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
+      <c r="N66" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,26 +3250,29 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1618500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1495900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1432800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1310000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1210000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>10</v>
       </c>
@@ -3115,14 +3288,17 @@
       <c r="M72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
+      <c r="N72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,26 +3426,29 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1880200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1921900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1883400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1899000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1899500</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>10</v>
       </c>
@@ -3279,14 +3464,17 @@
       <c r="M76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
+      <c r="N76" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-122600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-63100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-122800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-239700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>26300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-70800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-52800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-78100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-133000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-151000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3439,17 +3637,17 @@
         <v>4000</v>
       </c>
       <c r="E83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F83" s="3">
         <v>3700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3200</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>10</v>
       </c>
@@ -3465,14 +3663,17 @@
       <c r="M83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,26 +3889,29 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-25400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17500</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>10</v>
       </c>
@@ -3711,14 +3927,17 @@
       <c r="M89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,26 +3953,27 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2200</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>10</v>
       </c>
@@ -3769,14 +3989,17 @@
       <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,26 +4083,29 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-51000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>11000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>10900</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>10</v>
       </c>
@@ -3892,14 +4121,17 @@
       <c r="M94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,26 +4321,29 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>20100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>9000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1442900</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>10</v>
       </c>
@@ -4114,32 +4359,35 @@
       <c r="M100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E101" s="3">
         <v>7000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>6400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2300</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>10</v>
       </c>
@@ -4155,32 +4403,35 @@
       <c r="M101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-89500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-50000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1438600</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>10</v>
       </c>
@@ -4196,10 +4447,13 @@
       <c r="M102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PATH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PATH_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>242200</v>
+      </c>
+      <c r="E8" s="3">
         <v>245100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>289700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>220800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>195500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>186200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>207900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>147300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>139400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>113100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>114800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>83900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>77100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>60300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E9" s="3">
         <v>45000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>41200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>43100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>35600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>49000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>20100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>17400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>198100</v>
+      </c>
+      <c r="E10" s="3">
         <v>200100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>248500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>177700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>159900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>137200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>187800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>129900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>124700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>99500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>102000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>70200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>63200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E12" s="3">
         <v>68700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>64400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>61600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>57600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>93000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>29200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>27500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>26500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>26700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>24300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>25800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>32300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,13 +986,16 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>12000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -1001,20 +1021,23 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>11500</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1025,40 +1048,43 @@
         <v>500</v>
       </c>
       <c r="F15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G15" s="3">
         <v>400</v>
       </c>
       <c r="H15" s="3">
+        <v>400</v>
+      </c>
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>10</v>
+      <c r="L15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>362400</v>
+      </c>
+      <c r="E17" s="3">
         <v>361000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>340600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>337100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>293300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>422200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>193300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>210300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>156400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>158000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>190800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>218400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>227100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>217100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-120200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-115900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-50900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-116300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-97800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-236000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-63000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-17000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-44900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-76000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-134500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-150000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-156800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,73 +1211,77 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>24100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-112300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-113700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-50700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-115900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-94500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-235100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-116300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-117800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-54700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-119600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-98300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-238300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>19600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-69200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-52200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-76200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-132400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-150300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-158200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E24" s="3">
         <v>4800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-6600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-120400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-122600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-63100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-122800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-239700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>26300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-70800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-52800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-78100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-133000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-151000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-120400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-122600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-63100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-122800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-239700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>26300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-70800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-52800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-78100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-133000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-151000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E32" s="3">
         <v>1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-24100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-120400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-122600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-63100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-122800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-239700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>26300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-70800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-52800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-78100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-133000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-151000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-120400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-122600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-63100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-122800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-239700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>26300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-70800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-52800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-78100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-133000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-151000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,29 +2053,30 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1607400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1679200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1768700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1776400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1826400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1796300</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2005,35 +2092,38 @@
       <c r="N41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
+      <c r="O41" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>114200</v>
+      </c>
+      <c r="E42" s="3">
         <v>114700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>96400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>102000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>70100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>83300</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>10</v>
       </c>
@@ -2049,35 +2139,38 @@
       <c r="N42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>303100</v>
+      </c>
+      <c r="E43" s="3">
         <v>266400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>336900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>269400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>198500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>177500</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2093,14 +2186,17 @@
       <c r="N43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,29 +2239,32 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E45" s="3">
         <v>84600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>75300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>59400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>64000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>62900</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2181,35 +2280,38 @@
       <c r="N45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2108500</v>
+      </c>
+      <c r="E46" s="3">
         <v>2145000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2277300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2207200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2159100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2119900</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2225,35 +2327,38 @@
       <c r="N46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
+      <c r="O46" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E47" s="3">
         <v>12800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>22300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>14300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>9100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>10</v>
       </c>
@@ -2269,35 +2374,38 @@
       <c r="N47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E48" s="3">
         <v>66700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>66100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>65100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>31000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31600</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2313,35 +2421,38 @@
       <c r="N48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>121100</v>
+      </c>
+      <c r="E49" s="3">
         <v>70000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>73500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>77300</v>
       </c>
       <c r="G49" s="3">
         <v>77300</v>
       </c>
       <c r="H49" s="3">
+        <v>77300</v>
+      </c>
+      <c r="I49" s="3">
         <v>82300</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2357,14 +2468,17 @@
       <c r="N49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,29 +2568,32 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>127400</v>
+      </c>
+      <c r="E52" s="3">
         <v>130200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>133300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>103700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>78000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>63600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2489,14 +2609,17 @@
       <c r="N52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,29 +2662,32 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2434700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2424700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2572500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2467700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2347900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2306600</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2577,14 +2703,17 @@
       <c r="N54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
+      <c r="O54" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,29 +2749,30 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E57" s="3">
         <v>17400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>23900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5600</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2657,14 +2788,17 @@
       <c r="N57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,29 +2841,32 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>448000</v>
+      </c>
+      <c r="E59" s="3">
         <v>420800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>516000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>443300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>371700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>322900</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>10</v>
       </c>
@@ -2745,35 +2882,38 @@
       <c r="N59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>460100</v>
+      </c>
+      <c r="E60" s="3">
         <v>438200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>527500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>467300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>374500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>328600</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2789,14 +2929,17 @@
       <c r="N60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
+      <c r="O60" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,29 +2982,32 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>125100</v>
+      </c>
+      <c r="E62" s="3">
         <v>106300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>123000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>117000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>74400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>78400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>10</v>
       </c>
@@ -2877,14 +3023,17 @@
       <c r="N62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,29 +3170,32 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>585100</v>
+      </c>
+      <c r="E66" s="3">
         <v>544500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>650500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>584300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>448900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>407000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>10</v>
       </c>
@@ -3053,14 +3211,17 @@
       <c r="N66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O66" s="3">
-        <v>0</v>
+      <c r="O66" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,29 +3424,32 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1738900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1618500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1495900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1432800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1310000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1210000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>10</v>
       </c>
@@ -3291,14 +3465,17 @@
       <c r="N72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
+      <c r="O72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,29 +3612,32 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1849500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1880200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1921900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1883400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1899000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1899500</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>10</v>
       </c>
@@ -3467,14 +3653,17 @@
       <c r="N76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
+      <c r="O76" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-120400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-122600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-63100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-122800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-239700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>26300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-70800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-52800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-78100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-133000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-151000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3640,17 +3839,17 @@
         <v>4000</v>
       </c>
       <c r="F83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G83" s="3">
         <v>3700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>10</v>
       </c>
@@ -3666,14 +3865,17 @@
       <c r="N83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,29 +4106,32 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-52900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-25400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-17500</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>10</v>
       </c>
@@ -3930,14 +4147,17 @@
       <c r="N89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,29 +4174,30 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>10</v>
       </c>
@@ -3992,14 +4213,17 @@
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,29 +4313,32 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-51000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>11000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>10900</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>10</v>
       </c>
@@ -4124,14 +4354,17 @@
       <c r="N94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,29 +4567,32 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-18200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>20100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>9000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1442900</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>10</v>
       </c>
@@ -4362,35 +4608,38 @@
       <c r="N100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2300</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>10</v>
       </c>
@@ -4406,35 +4655,38 @@
       <c r="N101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-71900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-89500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-50000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1438600</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>10</v>
       </c>
@@ -4450,10 +4702,13 @@
       <c r="N102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PATH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PATH_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>262700</v>
+      </c>
+      <c r="E8" s="3">
         <v>242200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>245100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>289700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>220800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>195500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>186200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>207900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>147300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>139400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>113100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>114800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>83900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>77100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>60300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E9" s="3">
         <v>44100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>45000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>41200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>43100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>35600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>49000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>20100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>219900</v>
+      </c>
+      <c r="E10" s="3">
         <v>198100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>248500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>177700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>159900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>137200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>187800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>129900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>124700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>99500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>102000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>70200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>63200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E12" s="3">
         <v>67800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>68700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>64400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>61600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>57600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>93000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>29200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>27500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>26500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>26700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>24300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>25800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>32300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,17 +1006,20 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E14" s="3">
         <v>12000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1024,25 +1044,28 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>11500</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E15" s="3">
         <v>500</v>
@@ -1051,40 +1074,43 @@
         <v>500</v>
       </c>
       <c r="G15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H15" s="3">
         <v>400</v>
       </c>
       <c r="I15" s="3">
+        <v>400</v>
+      </c>
+      <c r="J15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>10</v>
+      <c r="M15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>329700</v>
+      </c>
+      <c r="E17" s="3">
         <v>362400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>361000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>340600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>337100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>293300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>422200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>193300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>210300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>156400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>158000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>190800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>218400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>227100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>217100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-120200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-115900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-50900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-116300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-97800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-236000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-63000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-17000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-44900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-76000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-134500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-150000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-156800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,79 +1245,83 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E20" s="3">
         <v>3900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>24100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-112300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-113700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-50700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-115900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-94500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-235100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-116300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-117800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-54700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-119600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-98300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-238300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>19600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-69200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-52200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-76200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-132400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-150300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-158200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>4100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-120400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-122600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-63100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-122800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-239700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>26300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-70800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-52800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-78100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-133000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-151000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-120400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-122600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-63100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-122800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-239700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>26300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-70800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-52800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-78100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-133000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-151000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-24100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-120400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-122600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-63100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-122800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-239700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>26300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-70800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-52800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-78100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-133000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-151000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-120400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-122600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-63100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-122800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-239700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>26300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-70800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-52800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-78100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-133000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-151000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,32 +2140,33 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1451200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1607400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1679200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1768700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1776400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1826400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1796300</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2095,38 +2182,41 @@
       <c r="O41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
+      <c r="P41" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>225600</v>
+      </c>
+      <c r="E42" s="3">
         <v>114200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>114700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>96400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>102000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>70100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>83300</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>10</v>
       </c>
@@ -2142,38 +2232,41 @@
       <c r="O42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>394700</v>
+      </c>
+      <c r="E43" s="3">
         <v>303100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>266400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>336900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>269400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>198500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>177500</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2189,14 +2282,17 @@
       <c r="O43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,32 +2338,35 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>87800</v>
+      </c>
+      <c r="E45" s="3">
         <v>83900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>84600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>75300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>59400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>64000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>62900</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2283,38 +2382,41 @@
       <c r="O45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2159200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2108500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2145000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2277300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2207200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2159100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2119900</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2330,38 +2432,41 @@
       <c r="O46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
+      <c r="P46" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E47" s="3">
         <v>8100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>22300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>14300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>9100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>10</v>
       </c>
@@ -2377,38 +2482,41 @@
       <c r="O47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E48" s="3">
         <v>69600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>66700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>66100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>65100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>31600</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2424,38 +2532,41 @@
       <c r="O48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>115300</v>
+      </c>
+      <c r="E49" s="3">
         <v>121100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>70000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>73500</v>
-      </c>
-      <c r="G49" s="3">
-        <v>77300</v>
       </c>
       <c r="H49" s="3">
         <v>77300</v>
       </c>
       <c r="I49" s="3">
+        <v>77300</v>
+      </c>
+      <c r="J49" s="3">
         <v>82300</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2471,14 +2582,17 @@
       <c r="O49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,32 +2688,35 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E52" s="3">
         <v>127400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>130200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>133300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>103700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>78000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>63600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2612,14 +2732,17 @@
       <c r="O52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,32 +2788,35 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2511700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2434700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2424700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2572500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2467700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2347900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2306600</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2706,14 +2832,17 @@
       <c r="O54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
+      <c r="P54" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,32 +2880,33 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E57" s="3">
         <v>12100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>23900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5600</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2791,14 +2922,17 @@
       <c r="O57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,32 +2978,35 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>465400</v>
+      </c>
+      <c r="E59" s="3">
         <v>448000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>420800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>516000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>443300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>371700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>322900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>10</v>
       </c>
@@ -2885,38 +3022,41 @@
       <c r="O59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>476600</v>
+      </c>
+      <c r="E60" s="3">
         <v>460100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>438200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>527500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>467300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>374500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>328600</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2932,14 +3072,17 @@
       <c r="O60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
+      <c r="P60" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,32 +3128,35 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>175200</v>
+      </c>
+      <c r="E62" s="3">
         <v>125100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>106300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>123000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>117000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>74400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>78400</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>10</v>
       </c>
@@ -3026,14 +3172,17 @@
       <c r="O62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,32 +3328,35 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>651900</v>
+      </c>
+      <c r="E66" s="3">
         <v>585100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>544500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>650500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>584300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>448900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>407000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>10</v>
       </c>
@@ -3214,14 +3372,17 @@
       <c r="O66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
+      <c r="P66" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,32 +3598,35 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1796600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1738900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1618500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1495900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1432800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1310000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1210000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>10</v>
       </c>
@@ -3468,14 +3642,17 @@
       <c r="O72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
+      <c r="P72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,32 +3798,35 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1859800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1849500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1880200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1921900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1883400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1899000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1899500</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>10</v>
       </c>
@@ -3656,14 +3842,17 @@
       <c r="O76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
+      <c r="P76" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-120400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-122600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-63100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-122800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-239700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>26300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-70800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-52800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-78100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-133000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-151000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,13 +4025,14 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4000</v>
+        <v>4900</v>
       </c>
       <c r="E83" s="3">
         <v>4000</v>
@@ -3842,17 +4041,17 @@
         <v>4000</v>
       </c>
       <c r="G83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H83" s="3">
         <v>3700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3200</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
       </c>
@@ -3868,14 +4067,17 @@
       <c r="O83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,32 +4323,35 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-52900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-25400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-17500</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>10</v>
       </c>
@@ -4150,14 +4367,17 @@
       <c r="O89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,32 +4395,33 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
       </c>
@@ -4216,14 +4437,17 @@
       <c r="O91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,32 +4543,35 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-118200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-28800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-51000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>11000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>10900</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
       </c>
@@ -4357,14 +4587,17 @@
       <c r="O94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,32 +4813,35 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-19000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-18200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>20100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>9000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1442900</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
       </c>
@@ -4611,38 +4857,41 @@
       <c r="O100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>7000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2300</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
       </c>
@@ -4658,38 +4907,41 @@
       <c r="O101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-156200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-71900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-89500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-50000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1438600</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>10</v>
       </c>
@@ -4705,10 +4957,13 @@
       <c r="O102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PATH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PATH_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>308500</v>
+      </c>
+      <c r="E8" s="3">
         <v>262700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>242200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>245100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>289700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>220800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>195500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>186200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>207900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>147300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>139400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>113100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>114800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>83900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>77100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>60300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E9" s="3">
         <v>42800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>44100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>45000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>41200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>43100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>35600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>49000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>20100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>261200</v>
+      </c>
+      <c r="E10" s="3">
         <v>219900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>198100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>248500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>177700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>159900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>137200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>187800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>129900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>124700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>99500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>102000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>70200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>63200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>81400</v>
+      </c>
+      <c r="E12" s="3">
         <v>67300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>67800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>68700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>64400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>61600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>57600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>93000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>29200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>27500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>26500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>26700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>24300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>25800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>32300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,20 +1026,23 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>12000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1047,20 +1067,23 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>11500</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1068,7 +1091,7 @@
         <v>700</v>
       </c>
       <c r="E15" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F15" s="3">
         <v>500</v>
@@ -1077,40 +1100,43 @@
         <v>500</v>
       </c>
       <c r="H15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I15" s="3">
         <v>400</v>
       </c>
       <c r="J15" s="3">
+        <v>400</v>
+      </c>
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>10</v>
+      <c r="N15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>353700</v>
+      </c>
+      <c r="E17" s="3">
         <v>329700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>362400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>361000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>340600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>337100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>293300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>422200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>193300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>210300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>156400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>158000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>190800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>218400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>227100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>217100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-67000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-120200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-115900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-50900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-116300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-97800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-236000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-63000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-17000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-44900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-76000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-134500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-150000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-156800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,85 +1279,89 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E20" s="3">
         <v>10500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>24100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-51600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-112300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-113700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-50700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-115900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-94500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-235100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1346,8 +1383,11 @@
       <c r="R21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,108 +1436,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-56500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-116300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-117800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-54700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-119600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-98300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-238300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-69200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-52200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-76200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-132400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-150300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-158200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-57700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-120400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-122600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-63100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-122800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-239700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-70800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-52800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-78100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-133000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-151000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-57700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-120400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-122600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-63100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-122800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-239700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>26300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-70800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-52800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-78100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-133000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-151000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-10500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-24100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-57700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-120400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-122600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-63100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-122800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-239700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>26300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-70800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-52800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-78100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-133000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-151000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-57700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-120400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-122600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-63100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-122800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-239700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>26300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-70800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-52800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-78100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-133000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-151000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,35 +2227,36 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1402100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1451200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1607400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1679200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1768700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1776400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1826400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1796300</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2185,41 +2272,44 @@
       <c r="P41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
+      <c r="Q41" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>354800</v>
+      </c>
+      <c r="E42" s="3">
         <v>225600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>114200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>114700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>96400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>102000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>70100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>83300</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>10</v>
       </c>
@@ -2235,41 +2325,44 @@
       <c r="P42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>443500</v>
+      </c>
+      <c r="E43" s="3">
         <v>394700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>303100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>266400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>336900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>269400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>198500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>177500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2285,14 +2378,17 @@
       <c r="P43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,35 +2437,38 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E45" s="3">
         <v>87800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>83900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>84600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>75300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>59400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>64000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>62900</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2385,41 +2484,44 @@
       <c r="P45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2344400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2159200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2108500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2145000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2277300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2207200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2159100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2119900</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2435,41 +2537,44 @@
       <c r="P46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
+      <c r="Q46" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E47" s="3">
         <v>12400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>12800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>22300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>14300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>9100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>10</v>
       </c>
@@ -2485,41 +2590,44 @@
       <c r="P47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>81100</v>
+      </c>
+      <c r="E48" s="3">
         <v>78700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>69600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>66700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>66100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>65100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>31000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>31600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2535,41 +2643,44 @@
       <c r="P48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>118500</v>
+      </c>
+      <c r="E49" s="3">
         <v>115300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>121100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>70000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>73500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>77300</v>
       </c>
       <c r="I49" s="3">
         <v>77300</v>
       </c>
       <c r="J49" s="3">
+        <v>77300</v>
+      </c>
+      <c r="K49" s="3">
         <v>82300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2585,14 +2696,17 @@
       <c r="P49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,35 +2808,38 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>181700</v>
+      </c>
+      <c r="E52" s="3">
         <v>146000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>127400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>130200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>133300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>103700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>78000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>63600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2735,14 +2855,17 @@
       <c r="P52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,35 +2914,38 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2735200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2511700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2434700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2424700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2572500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2467700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2347900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2306600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2835,14 +2961,17 @@
       <c r="P54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
+      <c r="Q54" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,35 +3011,36 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E57" s="3">
         <v>11300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>23900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5600</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2925,14 +3056,17 @@
       <c r="P57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,35 +3115,38 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>617600</v>
+      </c>
+      <c r="E59" s="3">
         <v>465400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>448000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>420800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>516000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>443300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>371700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>322900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>10</v>
       </c>
@@ -3025,41 +3162,44 @@
       <c r="P59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>626500</v>
+      </c>
+      <c r="E60" s="3">
         <v>476600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>460100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>438200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>527500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>467300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>374500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>328600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>10</v>
       </c>
@@ -3075,14 +3215,17 @@
       <c r="P60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q60" s="3">
-        <v>0</v>
+      <c r="Q60" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,35 +3274,38 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>188600</v>
+      </c>
+      <c r="E62" s="3">
         <v>175200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>125100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>106300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>123000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>117000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>74400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>78400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>10</v>
       </c>
@@ -3175,14 +3321,17 @@
       <c r="P62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,35 +3486,38 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>815000</v>
+      </c>
+      <c r="E66" s="3">
         <v>651900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>585100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>544500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>650500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>584300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>448900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>407000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>10</v>
       </c>
@@ -3375,14 +3533,17 @@
       <c r="P66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q66" s="3">
-        <v>0</v>
+      <c r="Q66" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,35 +3772,38 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1824300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1796600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1738900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1618500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1495900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1432800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1310000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1210000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>10</v>
       </c>
@@ -3645,14 +3819,17 @@
       <c r="P72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
+      <c r="Q72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,35 +3984,38 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1920200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1859800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1849500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1880200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1921900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1883400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1899000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1899500</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>10</v>
       </c>
@@ -3845,14 +4031,17 @@
       <c r="P76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
+      <c r="Q76" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-57700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-120400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-122600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-63100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-122800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-239700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>26300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-70800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-52800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-78100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-133000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-151000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,16 +4224,17 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E83" s="3">
         <v>4900</v>
-      </c>
-      <c r="E83" s="3">
-        <v>4000</v>
       </c>
       <c r="F83" s="3">
         <v>4000</v>
@@ -4044,17 +4243,17 @@
         <v>4000</v>
       </c>
       <c r="H83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I83" s="3">
         <v>3700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>10</v>
       </c>
@@ -4070,14 +4269,17 @@
       <c r="P83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,35 +4540,38 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-27300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-23700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-52900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-25400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-17500</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>10</v>
       </c>
@@ -4370,14 +4587,17 @@
       <c r="P89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="Q89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,35 +4616,36 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3200</v>
       </c>
-      <c r="H91" s="3">
-        <v>-2100</v>
-      </c>
       <c r="I91" s="3">
-        <v>-1400</v>
+        <v>-5500</v>
       </c>
       <c r="J91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
@@ -4440,14 +4661,17 @@
       <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,35 +4773,38 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-126500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-118200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-28800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-51000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>11000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>10900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>10</v>
       </c>
@@ -4590,14 +4820,17 @@
       <c r="P94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,35 +5059,38 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-19000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-18200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>20100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>9000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1442900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>10</v>
       </c>
@@ -4860,41 +5106,44 @@
       <c r="P100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>7000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>6400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2300</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>10</v>
       </c>
@@ -4910,41 +5159,44 @@
       <c r="P101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-156200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-71900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-89500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-50000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1438600</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>10</v>
       </c>
@@ -4960,10 +5212,13 @@
       <c r="P102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PATH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PATH_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>289600</v>
+      </c>
+      <c r="E8" s="3">
         <v>308500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>262700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>242200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>245100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>289700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>220800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>195500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>186200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>207900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>147300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>139400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>113100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>114800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>83900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>77100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>60300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E9" s="3">
         <v>47300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>42800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>44100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>45000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>41200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>43100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>35600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>49000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>20100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>245900</v>
+      </c>
+      <c r="E10" s="3">
         <v>261200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>219900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>198100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>248500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>177700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>159900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>137200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>187800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>129900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>124700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>99500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>102000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>70200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>63200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E12" s="3">
         <v>81400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>67300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>67800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>68700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>64400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>61600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>57600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>93000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>29200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>27500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>26500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>26700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>24300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>25800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>32300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,23 +1045,26 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>900</v>
+      </c>
+      <c r="E14" s="3">
         <v>10300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1070,20 +1089,23 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>11500</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1094,7 +1116,7 @@
         <v>700</v>
       </c>
       <c r="F15" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G15" s="3">
         <v>500</v>
@@ -1103,40 +1125,43 @@
         <v>500</v>
       </c>
       <c r="I15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J15" s="3">
         <v>400</v>
       </c>
       <c r="K15" s="3">
+        <v>400</v>
+      </c>
+      <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>10</v>
+      <c r="O15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>336000</v>
+      </c>
+      <c r="E17" s="3">
         <v>353700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>329700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>362400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>361000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>340600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>337100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>293300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>422200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>193300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>210300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>156400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>158000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>190800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>218400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>227100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>217100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-45200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-67000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-120200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-115900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-50900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-116300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-97800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-236000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-63000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-17000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-44900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-134500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-150000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-156800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,91 +1312,95 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E20" s="3">
         <v>18200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>10500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>24100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-21200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-51600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-112300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-113700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-50700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-115900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-94500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-235100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1386,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-27000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-56500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-116300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-117800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-54700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-119600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-98300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-238300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-69200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-52200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-76200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-132400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-150300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-158200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-27700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-57700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-120400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-122600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-63100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-122800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-239700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>26300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-70800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-52800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-78100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-133000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-151000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-27700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-57700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-120400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-122600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-63100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-122800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-239700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>26300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-70800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-52800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-78100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-133000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-151000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-18200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-10500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-24100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-27700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-57700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-120400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-122600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-63100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-122800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-239700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>26300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-70800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-52800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-78100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-133000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-151000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-27700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-57700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-120400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-122600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-63100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-122800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-239700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>26300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-70800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-52800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-78100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-133000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-151000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,38 +2313,39 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1311600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1402100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1451200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1607400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1679200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1768700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1776400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1826400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1796300</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2275,44 +2361,47 @@
       <c r="Q41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
+      <c r="R41" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>469100</v>
+      </c>
+      <c r="E42" s="3">
         <v>354800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>225600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>114200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>114700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>96400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>102000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>70100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>83300</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>10</v>
       </c>
@@ -2328,44 +2417,47 @@
       <c r="Q42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>301800</v>
+      </c>
+      <c r="E43" s="3">
         <v>443500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>394700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>303100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>266400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>336900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>269400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>198500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>177500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2381,14 +2473,17 @@
       <c r="Q43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,38 +2535,41 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>174800</v>
+      </c>
+      <c r="E45" s="3">
         <v>144000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>87800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>83900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>84600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>75300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>59400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>64000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>62900</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2487,44 +2585,47 @@
       <c r="Q45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2257300</v>
+      </c>
+      <c r="E46" s="3">
         <v>2344400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2159200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2108500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2145000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2277300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2207200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2159100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2119900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2540,44 +2641,47 @@
       <c r="Q46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
+      <c r="R46" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E47" s="3">
         <v>9500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>12800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>22300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>14300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>10</v>
       </c>
@@ -2593,44 +2697,47 @@
       <c r="Q47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>79200</v>
+      </c>
+      <c r="E48" s="3">
         <v>81100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>78700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>69600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>66700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>66100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>65100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>31000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2646,44 +2753,47 @@
       <c r="Q48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>110400</v>
+      </c>
+      <c r="E49" s="3">
         <v>118500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>115300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>121100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>70000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>73500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>77300</v>
       </c>
       <c r="J49" s="3">
         <v>77300</v>
       </c>
       <c r="K49" s="3">
+        <v>77300</v>
+      </c>
+      <c r="L49" s="3">
         <v>82300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2699,14 +2809,17 @@
       <c r="Q49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,38 +2927,41 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>183200</v>
+      </c>
+      <c r="E52" s="3">
         <v>181700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>146000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>127400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>130200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>133300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>103700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>78000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>63600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2858,14 +2977,17 @@
       <c r="Q52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,38 +3039,41 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2642700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2735200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2511700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2434700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2424700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2572500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2467700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2347900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2306600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2964,14 +3089,17 @@
       <c r="Q54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
+      <c r="R54" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,38 +3141,39 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E57" s="3">
         <v>8900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>23900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>10</v>
       </c>
@@ -3059,14 +3189,17 @@
       <c r="Q57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="R57" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3118,38 +3251,41 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>497700</v>
+      </c>
+      <c r="E59" s="3">
         <v>617600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>465400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>448000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>420800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>516000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>443300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>371700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>322900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>10</v>
       </c>
@@ -3165,44 +3301,47 @@
       <c r="Q59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>503400</v>
+      </c>
+      <c r="E60" s="3">
         <v>626500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>476600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>460100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>438200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>527500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>467300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>374500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>328600</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>10</v>
       </c>
@@ -3218,14 +3357,17 @@
       <c r="Q60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
+      <c r="R60" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,38 +3419,41 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>183800</v>
+      </c>
+      <c r="E62" s="3">
         <v>188600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>175200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>125100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>106300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>123000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>117000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>74400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>78400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>10</v>
       </c>
@@ -3324,14 +3469,17 @@
       <c r="Q62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,38 +3643,41 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>687100</v>
+      </c>
+      <c r="E66" s="3">
         <v>815000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>651900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>585100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>544500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>650500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>584300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>448900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>407000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>10</v>
       </c>
@@ -3536,14 +3693,17 @@
       <c r="Q66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R66" s="3">
-        <v>0</v>
+      <c r="R66" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,38 +3945,41 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1856200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1824300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1796600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1738900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1618500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1495900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1432800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1310000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1210000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>10</v>
       </c>
@@ -3822,14 +3995,17 @@
       <c r="Q72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
+      <c r="R72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,38 +4169,41 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1955500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1920200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1859800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1849500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1880200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1921900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1883400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1899000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1899500</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>10</v>
       </c>
@@ -4034,14 +4219,17 @@
       <c r="Q76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
+      <c r="R76" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-27700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-57700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-120400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-122600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-63100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-122800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-239700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>26300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-70800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-52800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-78100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-133000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-151000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,19 +4422,20 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E83" s="3">
         <v>5700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>4000</v>
       </c>
       <c r="G83" s="3">
         <v>4000</v>
@@ -4246,17 +4444,17 @@
         <v>4000</v>
       </c>
       <c r="I83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J83" s="3">
         <v>3700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>10</v>
       </c>
@@ -4272,14 +4470,17 @@
       <c r="Q83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,38 +4756,41 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E89" s="3">
         <v>94000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-27300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-23700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-52900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-25400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-17500</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>10</v>
       </c>
@@ -4590,14 +4806,17 @@
       <c r="Q89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
+      <c r="R89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,38 +4836,39 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
@@ -4664,14 +4884,17 @@
       <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,38 +5002,41 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-135600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-126500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-118200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-51000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>11000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>10900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>10</v>
       </c>
@@ -4823,14 +5052,17 @@
       <c r="Q94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,38 +5304,41 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-16900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-19000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-18200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>20100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>9000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1442900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>10</v>
       </c>
@@ -5109,44 +5354,47 @@
       <c r="Q100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>7000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>6400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2300</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>10</v>
       </c>
@@ -5162,44 +5410,47 @@
       <c r="Q101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-90500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-49000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-156200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-71900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-89500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-50000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1438600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>10</v>
       </c>
@@ -5215,10 +5466,13 @@
       <c r="Q102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
+      <c r="R102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PATH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PATH_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>287300</v>
+      </c>
+      <c r="E8" s="3">
         <v>289600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>308500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>262700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>242200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>245100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>289700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>220800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>195500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>186200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>207900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>147300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>139400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>113100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>114800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>83900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>77100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>60300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E9" s="3">
         <v>43700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>47300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>42800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>44100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>45000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>41200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>43100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>35600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>49000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>20100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>238500</v>
+      </c>
+      <c r="E10" s="3">
         <v>245900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>261200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>219900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>198100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>248500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>177700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>159900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>137200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>187800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>129900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>124700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>99500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>102000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>70200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>63200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>42200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>86500</v>
+      </c>
+      <c r="E12" s="3">
         <v>75100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>81400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>67300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>67800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>68700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>64400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>61600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>57600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>93000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>29200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>27500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>26500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>26700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>24300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>25800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>32300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>48200</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,26 +1065,29 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1092,20 +1112,23 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>11500</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1119,7 +1142,7 @@
         <v>700</v>
       </c>
       <c r="G15" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="H15" s="3">
         <v>500</v>
@@ -1128,40 +1151,43 @@
         <v>500</v>
       </c>
       <c r="J15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K15" s="3">
         <v>400</v>
       </c>
       <c r="L15" s="3">
+        <v>400</v>
+      </c>
+      <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>10</v>
+      <c r="P15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>364900</v>
+      </c>
+      <c r="E17" s="3">
         <v>336000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>353700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>329700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>362400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>361000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>340600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>337100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>293300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>422200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>193300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>210300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>156400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>158000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>190800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>218400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>227100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>217100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-77600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-46400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-45200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-67000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-120200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-115900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-50900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-116300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-97800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-236000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-63000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-17000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-44900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-76000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-134500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-150000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-156800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,97 +1346,101 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E20" s="3">
         <v>18100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>18200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>10500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>24100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-22700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-21200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-51600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-112300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-113700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-50700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-115900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-94500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-235100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1521,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-27000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-56500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-116300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-117800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-54700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-119600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-98300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-238300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>19600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-69200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-52200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-76200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-132400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-150300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-158200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E24" s="3">
         <v>3600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-31900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-27700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-57700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-120400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-122600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-63100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-122800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-239700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>26300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-70800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-52800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-78100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-133000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-151000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-31900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-27700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-57700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-120400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-122600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-63100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-122800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-239700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>26300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-70800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-52800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-78100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-133000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-151000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-18100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-18200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-10500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-24100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-31900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-27700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-57700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-120400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-122600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-63100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-122800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-239700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>26300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-70800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-52800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-78100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-133000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-151000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-31900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-27700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-57700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-120400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-122600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-63100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-122800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-239700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>26300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-70800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-52800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-78100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-133000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-151000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,41 +2400,42 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1093900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1311600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1402100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1451200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1607400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1679200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1768700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1776400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1826400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1796300</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2364,47 +2451,50 @@
       <c r="R41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
+      <c r="S41" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>735700</v>
+      </c>
+      <c r="E42" s="3">
         <v>469100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>354800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>225600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>114200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>114700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>96400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>102000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>70100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>83300</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>10</v>
       </c>
@@ -2420,47 +2510,50 @@
       <c r="R42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>306900</v>
+      </c>
+      <c r="E43" s="3">
         <v>301800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>443500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>394700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>303100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>266400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>336900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>269400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>198500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>177500</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2476,14 +2569,17 @@
       <c r="R43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,41 +2634,44 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>167100</v>
+      </c>
+      <c r="E45" s="3">
         <v>174800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>144000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>87800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>83900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>84600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>75300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>59400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>64000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>62900</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2588,47 +2687,50 @@
       <c r="R45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2303600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2257300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2344400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2159200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2108500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2145000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2277300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2207200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2159100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2119900</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2644,47 +2746,50 @@
       <c r="R46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
+      <c r="S46" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E47" s="3">
         <v>12600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>9500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>12400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>12800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>22300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>14300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>10</v>
       </c>
@@ -2700,47 +2805,50 @@
       <c r="R47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>77500</v>
+      </c>
+      <c r="E48" s="3">
         <v>79200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>81100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>78700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>69600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>66700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>66100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>65100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31600</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2756,47 +2864,50 @@
       <c r="R48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E49" s="3">
         <v>110400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>118500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>115300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>121100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>70000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>73500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>77300</v>
       </c>
       <c r="K49" s="3">
         <v>77300</v>
       </c>
       <c r="L49" s="3">
+        <v>77300</v>
+      </c>
+      <c r="M49" s="3">
         <v>82300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>10</v>
       </c>
@@ -2812,14 +2923,17 @@
       <c r="R49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,41 +3047,44 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>174700</v>
+      </c>
+      <c r="E52" s="3">
         <v>183200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>181700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>146000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>127400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>130200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>133300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>103700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>78000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>63600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2980,14 +3100,17 @@
       <c r="R52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,41 +3165,44 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2670100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2642700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2735200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2511700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2434700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2424700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2572500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2467700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2347900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2306600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>10</v>
       </c>
@@ -3092,14 +3218,17 @@
       <c r="R54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
+      <c r="S54" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,41 +3272,42 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>5700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>23900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5600</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>10</v>
       </c>
@@ -3192,14 +3323,17 @@
       <c r="R57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="S57" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,41 +3388,44 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>516300</v>
+      </c>
+      <c r="E59" s="3">
         <v>497700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>617600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>465400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>448000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>420800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>516000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>443300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>371700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>322900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>10</v>
       </c>
@@ -3304,47 +3441,50 @@
       <c r="R59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>518100</v>
+      </c>
+      <c r="E60" s="3">
         <v>503400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>626500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>476600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>460100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>438200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>527500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>467300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>374500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>328600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>10</v>
       </c>
@@ -3360,14 +3500,17 @@
       <c r="R60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S60" s="3">
-        <v>0</v>
+      <c r="S60" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,41 +3565,44 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>168600</v>
+      </c>
+      <c r="E62" s="3">
         <v>183800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>188600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>175200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>125100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>106300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>123000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>117000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>74400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>78400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>10</v>
       </c>
@@ -3472,14 +3618,17 @@
       <c r="R62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,41 +3801,44 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>686800</v>
+      </c>
+      <c r="E66" s="3">
         <v>687100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>815000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>651900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>585100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>544500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>650500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>584300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>448900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>407000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>10</v>
       </c>
@@ -3696,14 +3854,17 @@
       <c r="R66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S66" s="3">
-        <v>0</v>
+      <c r="S66" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,41 +4119,44 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1916600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1856200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1824300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1796600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1738900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1618500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1495900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1432800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1310000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1210000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>10</v>
       </c>
@@ -3998,14 +4172,17 @@
       <c r="R72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
+      <c r="S72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,41 +4355,44 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1983400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1955500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1920200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1859800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1849500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1880200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1921900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1883400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1899000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1899500</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>10</v>
       </c>
@@ -4222,14 +4408,17 @@
       <c r="R76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
+      <c r="S76" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-31900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-27700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-57700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-120400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-122600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-63100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-122800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-239700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>26300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-70800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-52800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-78100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-133000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-151000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-157800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,22 +4621,23 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E83" s="3">
         <v>5600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>4000</v>
       </c>
       <c r="H83" s="3">
         <v>4000</v>
@@ -4447,17 +4646,17 @@
         <v>4000</v>
       </c>
       <c r="J83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K83" s="3">
         <v>3700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>10</v>
       </c>
@@ -4473,14 +4672,17 @@
       <c r="R83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,41 +4973,44 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E89" s="3">
         <v>67300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>94000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-27300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-23700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-52900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-25400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17500</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>10</v>
       </c>
@@ -4809,14 +5026,17 @@
       <c r="R89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
+      <c r="S89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,41 +5057,42 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
@@ -4887,14 +5108,17 @@
       <c r="R91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,41 +5232,44 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-235100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-135600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-126500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-118200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-51000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>11000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>10900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>10</v>
       </c>
@@ -5055,14 +5285,17 @@
       <c r="R94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,41 +5550,44 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-20600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-16900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-18200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>20100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>9000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1442900</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>10</v>
       </c>
@@ -5357,47 +5603,50 @@
       <c r="R100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>7000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>6400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2300</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>10</v>
       </c>
@@ -5413,47 +5662,50 @@
       <c r="R101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-217300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-90500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-49000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-156200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-71900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-89500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-50000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1438600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>10</v>
       </c>
@@ -5469,10 +5721,13 @@
       <c r="R102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
+      <c r="S102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>
